--- a/results/I3_N5_M3_T15_C200_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M3_T15_C200_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.42265209420151</v>
+        <v>90.832652095059</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1519999504089355</v>
+        <v>0.1340000629425049</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.32999999914253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.26000000000001</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.335169194456213</v>
+        <v>5.13451068749495</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.17182228993174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.48326856299774</v>
+        <v>11.29375422704622</v>
       </c>
     </row>
     <row r="8">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.97499999999985</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.46999999999986</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>35.41999999999985</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.46999999999986</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>152.2399999999998</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.0149999999994</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.1549999999988</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>152.2950000000019</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3900000000012</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16999999999935</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999935</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.85999999999935</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999935</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>204.4749999998238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>194.3649999998323</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>197.6799999998237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>198.0799999998343</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>206.1900000001026</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>41.16999999999935</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>46.71499999999935</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>37.85999999999935</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>47.65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>45.31999999999934</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>204.4749999997788</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>194.3649999997873</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>197.6799999997788</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>198.0799999997893</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>206.1899999997935</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.474999999778284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>6.189999999792981</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,28 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
